--- a/public/Jobs.xlsx
+++ b/public/Jobs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>title</t>
   </si>
@@ -137,13 +137,34 @@
   </si>
   <si>
     <t>https://www.linkedin.com/jobs/view/3578980298</t>
+  </si>
+  <si>
+    <t>Desarrollador/a Backend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretaría de Innovación </t>
+  </si>
+  <si>
+    <t>Backend Developer</t>
+  </si>
+  <si>
+    <t>https://buenosaires.gob.ar/jefaturadegabinete/innovacion/te-estamos-buscando/desarrolladora-backend</t>
+  </si>
+  <si>
+    <t>Trainee</t>
+  </si>
+  <si>
+    <t>Diseñador/a UX</t>
+  </si>
+  <si>
+    <t>https://buenosaires.gob.ar/jefaturadegabinete/innovacion/te-estamos-buscando/busqueda-de-disenadora-ux</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -177,6 +198,26 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF38485C"/>
+      <name val="Nunito"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Nunito"/>
     </font>
   </fonts>
   <fills count="3">
@@ -218,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -260,6 +301,18 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,6 +717,40 @@
         <v>9</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D2"/>
@@ -676,7 +763,9 @@
     <hyperlink r:id="rId8" ref="D9"/>
     <hyperlink r:id="rId9" ref="D10"/>
     <hyperlink r:id="rId10" ref="D11"/>
+    <hyperlink r:id="rId11" ref="D12"/>
+    <hyperlink r:id="rId12" ref="D13"/>
   </hyperlinks>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/public/Jobs.xlsx
+++ b/public/Jobs.xlsx
@@ -40,7 +40,7 @@
     <t>https://www.linkedin.com/jobs/view/3610958323</t>
   </si>
   <si>
-    <t>Mid-Senior level</t>
+    <t>Mid-Senior</t>
   </si>
   <si>
     <t>Frontend Developer</t>
@@ -164,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -181,6 +181,10 @@
       <u/>
       <sz val="10.0"/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -259,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -275,13 +279,16 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -290,7 +297,7 @@
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -299,19 +306,19 @@
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -594,7 +601,7 @@
       <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -611,7 +618,7 @@
       <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -628,126 +635,126 @@
       <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="16" t="s">
         <v>13</v>
       </c>
     </row>
